--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_02</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,63 +505,63 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,102 +570,102 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,24 +674,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,24 +700,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,128 +739,128 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_03</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_03</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,202 +869,202 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_067</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,24 +1077,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,24 +1103,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,98 +1129,98 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,59 +1233,59 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_ADAMTS19_067</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,24 +1298,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,37 +1441,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,37 +1480,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,20 +1532,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,13 +1558,364 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>WT_SCR_08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>WT_SCR_08</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>WT_SCR_09</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">

--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -505,14 +505,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -590,17 +590,17 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -652,49 +652,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,37 +752,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,37 +791,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -834,33 +834,33 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,27 +908,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,20 +973,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,27 +1051,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1155,14 +1155,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1172,23 +1172,23 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1253,17 +1253,17 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_067</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1272,40 +1272,40 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_067</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1341,20 +1341,20 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1367,23 +1367,23 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -1393,20 +1393,20 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1419,20 +1419,20 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1445,33 +1445,33 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,37 +1519,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,37 +1584,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,102 +1727,102 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,37 +1831,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,26 +1896,156 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">

--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">

--- a/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/251024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,63 +505,63 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_05</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_06</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_07</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,27 +570,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_08</t>
+          <t>1K_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,24 +622,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_09</t>
+          <t>1K_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,37 +661,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_SCR_02</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,46 +752,46 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_SCR_04</t>
+          <t>1K_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_SCR_06</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_SCR_07</t>
+          <t>1K_SCR_02</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_SCR_08</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,37 +869,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_09</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_05</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_SCR_10</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_06</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,24 +921,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_03</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,24 +986,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_03</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_03</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_SCR_08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_SCR_09</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_06</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_SCR_10</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,37 +1129,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,63 +1168,63 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,24 +1233,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,20 +1259,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_067</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,33 +1285,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_08</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_09</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,37 +1376,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_SCR_02</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,37 +1467,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_SCR_04</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,37 +1506,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,24 +1545,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_SCR_06</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,24 +1571,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,63 +1597,63 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_067</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_SCR_09</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_04</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,24 +1831,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_SCR_06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>WT_SCR_09</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,13 +2039,481 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>WT_SCR_09</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
         <v>0</v>
       </c>
     </row>
